--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -546,10 +546,10 @@
         <v>4.091597</v>
       </c>
       <c r="I2">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J2">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>58.52240375825266</v>
+        <v>69.76679652019544</v>
       </c>
       <c r="R2">
-        <v>526.701633824274</v>
+        <v>627.9011686817589</v>
       </c>
       <c r="S2">
-        <v>0.08541793317891572</v>
+        <v>0.09587951074729782</v>
       </c>
       <c r="T2">
-        <v>0.08541793317891573</v>
+        <v>0.09587951074729779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>4.091597</v>
       </c>
       <c r="I3">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J3">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>72.77787230964442</v>
+        <v>72.77787230964445</v>
       </c>
       <c r="R3">
-        <v>655.0008507867999</v>
+        <v>655.0008507868001</v>
       </c>
       <c r="S3">
-        <v>0.1062248820046499</v>
+        <v>0.1000175891444023</v>
       </c>
       <c r="T3">
-        <v>0.1062248820046499</v>
+        <v>0.1000175891444023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>4.091597</v>
       </c>
       <c r="I4">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J4">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>54.52989205355789</v>
+        <v>34.10554952795755</v>
       </c>
       <c r="R4">
-        <v>490.769028482021</v>
+        <v>306.949945751618</v>
       </c>
       <c r="S4">
-        <v>0.07959055637777798</v>
+        <v>0.04687076898480968</v>
       </c>
       <c r="T4">
-        <v>0.079590556377778</v>
+        <v>0.04687076898480967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>4.091597</v>
       </c>
       <c r="I5">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J5">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>8.830315526057332</v>
+        <v>8.839686647053</v>
       </c>
       <c r="R5">
-        <v>79.472839734516</v>
+        <v>79.557179823477</v>
       </c>
       <c r="S5">
-        <v>0.01288852222593715</v>
+        <v>0.0121482549457968</v>
       </c>
       <c r="T5">
-        <v>0.01288852222593715</v>
+        <v>0.01214825494579679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>4.091597</v>
       </c>
       <c r="I6">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J6">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>46.90533061129621</v>
+        <v>25.209020596893</v>
       </c>
       <c r="R6">
-        <v>422.147975501666</v>
+        <v>226.881185372037</v>
       </c>
       <c r="S6">
-        <v>0.0684619246407092</v>
+        <v>0.0346443965009773</v>
       </c>
       <c r="T6">
-        <v>0.0684619246407092</v>
+        <v>0.0346443965009773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H7">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I7">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J7">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>53.53931382721868</v>
+        <v>73.91461260626565</v>
       </c>
       <c r="R7">
-        <v>481.853824444968</v>
+        <v>665.2315134563909</v>
       </c>
       <c r="S7">
-        <v>0.07814473154297701</v>
+        <v>0.1015797950779258</v>
       </c>
       <c r="T7">
-        <v>0.07814473154297701</v>
+        <v>0.1015797950779258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H8">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I8">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J8">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>66.58095182417777</v>
+        <v>77.10470462146667</v>
       </c>
       <c r="R8">
-        <v>599.2285664176</v>
+        <v>693.9423415932</v>
       </c>
       <c r="S8">
-        <v>0.09718000165200374</v>
+        <v>0.1059638929140332</v>
       </c>
       <c r="T8">
-        <v>0.09718000165200374</v>
+        <v>0.1059638929140332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H9">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I9">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J9">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>49.88675816666356</v>
+        <v>36.13321245663133</v>
       </c>
       <c r="R9">
-        <v>448.9808234999721</v>
+        <v>325.198912109682</v>
       </c>
       <c r="S9">
-        <v>0.07281354664096296</v>
+        <v>0.04965735715079201</v>
       </c>
       <c r="T9">
-        <v>0.07281354664096296</v>
+        <v>0.04965735715079201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H10">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I10">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J10">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>8.078428153701333</v>
+        <v>9.365228828996999</v>
       </c>
       <c r="R10">
-        <v>72.705853383312</v>
+        <v>84.287059460973</v>
       </c>
       <c r="S10">
-        <v>0.01179108498471791</v>
+        <v>0.01287050005084862</v>
       </c>
       <c r="T10">
-        <v>0.01179108498471791</v>
+        <v>0.01287050005084862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H11">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I11">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J11">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>42.91141604745689</v>
+        <v>26.707761923157</v>
       </c>
       <c r="R11">
-        <v>386.202744427112</v>
+        <v>240.369857308413</v>
       </c>
       <c r="S11">
-        <v>0.06263250025914117</v>
+        <v>0.03670409527268959</v>
       </c>
       <c r="T11">
-        <v>0.06263250025914117</v>
+        <v>0.0367040952726896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H12">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I12">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J12">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>19.21081268458333</v>
+        <v>34.81920887255533</v>
       </c>
       <c r="R12">
-        <v>172.89731416125</v>
+        <v>313.372879852998</v>
       </c>
       <c r="S12">
-        <v>0.02803965334340875</v>
+        <v>0.04785154081629925</v>
       </c>
       <c r="T12">
-        <v>0.02803965334340875</v>
+        <v>0.04785154081629924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H13">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I13">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J13">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>23.89037330555555</v>
+        <v>36.32197640773334</v>
       </c>
       <c r="R13">
-        <v>215.01335975</v>
+        <v>326.8977876696001</v>
       </c>
       <c r="S13">
-        <v>0.03486983069019148</v>
+        <v>0.04991677274934467</v>
       </c>
       <c r="T13">
-        <v>0.03486983069019148</v>
+        <v>0.04991677274934467</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H14">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I14">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J14">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>17.90021384423611</v>
+        <v>17.02139573491067</v>
       </c>
       <c r="R14">
-        <v>161.101924598125</v>
+        <v>153.192561614196</v>
       </c>
       <c r="S14">
-        <v>0.02612673389752292</v>
+        <v>0.02339226074149699</v>
       </c>
       <c r="T14">
-        <v>0.02612673389752292</v>
+        <v>0.02339226074149698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H15">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I15">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J15">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>2.898676859166667</v>
+        <v>4.411710313266</v>
       </c>
       <c r="R15">
-        <v>26.0880917325</v>
+        <v>39.705392819394</v>
       </c>
       <c r="S15">
-        <v>0.004230841017507794</v>
+        <v>0.006062950393204711</v>
       </c>
       <c r="T15">
-        <v>0.004230841017507795</v>
+        <v>0.00606295039320471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H16">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I16">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J16">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>15.39734293902778</v>
+        <v>12.581316577746</v>
       </c>
       <c r="R16">
-        <v>138.57608645125</v>
+        <v>113.231849199714</v>
       </c>
       <c r="S16">
-        <v>0.02247360200260498</v>
+        <v>0.01729032345181519</v>
       </c>
       <c r="T16">
-        <v>0.02247360200260499</v>
+        <v>0.01729032345181519</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H17">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I17">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J17">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>34.709005749316</v>
+        <v>62.43967469801056</v>
       </c>
       <c r="R17">
-        <v>312.381051743844</v>
+        <v>561.9570722820949</v>
       </c>
       <c r="S17">
-        <v>0.05066045383317994</v>
+        <v>0.08580995200965998</v>
       </c>
       <c r="T17">
-        <v>0.05066045383317995</v>
+        <v>0.08580995200965995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H18">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I18">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J18">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>43.16377021786666</v>
+        <v>65.13451812155557</v>
       </c>
       <c r="R18">
-        <v>388.4739319607999</v>
+        <v>586.2106630940001</v>
       </c>
       <c r="S18">
-        <v>0.06300083051014256</v>
+        <v>0.08951343678863036</v>
       </c>
       <c r="T18">
-        <v>0.06300083051014257</v>
+        <v>0.08951343678863036</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H19">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I19">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J19">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>32.34109016804734</v>
+        <v>30.52368066385445</v>
       </c>
       <c r="R19">
-        <v>291.069811512426</v>
+        <v>274.71312597469</v>
       </c>
       <c r="S19">
-        <v>0.04720429957592086</v>
+        <v>0.04194825782791898</v>
       </c>
       <c r="T19">
-        <v>0.04720429957592086</v>
+        <v>0.04194825782791897</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H20">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I20">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J20">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>5.237164789543999</v>
+        <v>7.911315786365</v>
       </c>
       <c r="R20">
-        <v>47.134483105896</v>
+        <v>71.20184207728499</v>
       </c>
       <c r="S20">
-        <v>0.007644043363088206</v>
+        <v>0.01087240814825827</v>
       </c>
       <c r="T20">
-        <v>0.007644043363088207</v>
+        <v>0.01087240814825827</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H21">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I21">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J21">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>27.81904510597733</v>
+        <v>22.561492343565</v>
       </c>
       <c r="R21">
-        <v>250.371405953796</v>
+        <v>203.053431092085</v>
       </c>
       <c r="S21">
-        <v>0.04060402825863971</v>
+        <v>0.03100593628379854</v>
       </c>
       <c r="T21">
-        <v>0.04060402825863972</v>
+        <v>0.03100593628379854</v>
       </c>
     </row>
   </sheetData>
